--- a/Project Charter - Toasty Warm.xlsx
+++ b/Project Charter - Toasty Warm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Charter" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Dropdown Lists" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Project Charter" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dropdown Lists" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Check5" localSheetId="1">'Dropdown Lists'!$C$3</definedName>
@@ -1198,7 +1198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C3" s="31" t="inlineStr">
         <is>
-          <t>December 2, 2020</t>
+          <t>December 7, 2020</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>Troubleshooting for Gas Chromatography</t>
+          <t>Improved Protein/Variant Recovery, Selectivity and Reproducibility with New Monosized WCX Particle Technology</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
     <row r="17">
       <c r="B17" s="42" t="inlineStr">
         <is>
-          <t>WBRGCTRBS20-Attended</t>
+          <t>WBRBIONP18-Attended</t>
         </is>
       </c>
       <c r="C17" s="43" t="n"/>
@@ -1404,7 +1404,7 @@
     <row r="21">
       <c r="B21" s="44" t="inlineStr">
         <is>
-          <t>Attended webinar Troubleshooting for Gas Chromatography, on December 1, 2020. Is interested in products [as indicated in column N] and indicated that their most used column is [insert from column M, if it is not Other]</t>
+          <t>[As indicated in column R]</t>
         </is>
       </c>
       <c r="C21" s="45" t="n"/>
@@ -1487,12 +1487,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5144,11 +5144,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>